--- a/biology/Mycologie/Urocystis_(champignon)/Urocystis_(champignon).xlsx
+++ b/biology/Mycologie/Urocystis_(champignon)/Urocystis_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Urocystis est un genre de champignons de la classe des Ustilaginomycetes et de la famille des Urocystidaceae. Ce microchampignon phytopathogène est un agent de la maladie cryptogamique du charbon. Son espèce type est Urocystis occulta, un pathogène du seigle.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses sores se produisent principalement dans les feuilles et les tiges, parfois dans les fleurs ou les graines, moins souvent dans les racines. Elles se présentent sous forme de stries, de taches, de renflements ou de galles brun à brun noirâtre, contenant une masse de boules de spores noires et poudreuses. D'abord recouverte par un épiderme gris plomb, les spores sont ensuite libérées par sa déchirure[1],[2]. 
-Les boules de spores sont composées d'une à trois spores brunes, plus ou moins complètement entourées de cellules stériles plus pâles et plus petites, le tout prenant typiquement la forme d'un dessin enfantin de marguerite. La germination des spores est de type Tilletia. L'insertion des hyphes du parasite dans l'hôte s'effectue par des haustoria avec des zones d'intéraction élargies. Les septa des cloisons cellulaires sont simples, munis de capuchons membranaires et deux plaques non membranaires permettant de fermer le pore[1],[2].
-Urocystis est un taxonomiquement bien délimité comprenant environ 170 espèces et parasitant 31 familles de plantes hôtes dont 16 chez les monocotylédones, surtout des graminées et 15 chez les dicotylédones. L'infection est généralement systémique, se produisant d'une année sur l'autre. Quelques espèces sont également connues sous leur forme végétative, dites anamorphe, sous le nom Paepalopsis Kuhn[1].
-La détermination des espèces est souvent difficile en raison du chevauchement des rares caractères distinctifs basés sur la morphologie des boules de spores, des spores et des cellules stériles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses sores se produisent principalement dans les feuilles et les tiges, parfois dans les fleurs ou les graines, moins souvent dans les racines. Elles se présentent sous forme de stries, de taches, de renflements ou de galles brun à brun noirâtre, contenant une masse de boules de spores noires et poudreuses. D'abord recouverte par un épiderme gris plomb, les spores sont ensuite libérées par sa déchirure,. 
+Les boules de spores sont composées d'une à trois spores brunes, plus ou moins complètement entourées de cellules stériles plus pâles et plus petites, le tout prenant typiquement la forme d'un dessin enfantin de marguerite. La germination des spores est de type Tilletia. L'insertion des hyphes du parasite dans l'hôte s'effectue par des haustoria avec des zones d'intéraction élargies. Les septa des cloisons cellulaires sont simples, munis de capuchons membranaires et deux plaques non membranaires permettant de fermer le pore,.
+Urocystis est un taxonomiquement bien délimité comprenant environ 170 espèces et parasitant 31 familles de plantes hôtes dont 16 chez les monocotylédones, surtout des graminées et 15 chez les dicotylédones. L'infection est généralement systémique, se produisant d'une année sur l'autre. Quelques espèces sont également connues sous leur forme végétative, dites anamorphe, sous le nom Paepalopsis Kuhn.
+La détermination des espèces est souvent difficile en raison du chevauchement des rares caractères distinctifs basés sur la morphologie des boules de spores, des spores et des cellules stériles.
 	Quelques espèces du genre Urocystis
 			Urocystis magica sur Allium cepa.
 			Urocystis anemones sur Anemone nemorosa.
@@ -556,9 +570,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (11 novembre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (11 novembre 2022) :
 Urocystis achnatheri L.Guo
 Urocystis agropyri (Preuss) A.A.Fisch.Waldh.
 Urocystis agropyri-campestris (Massenot) H.Zogg
@@ -776,9 +792,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Urocystis a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Urocystis a pour synonymes :
 Ginanniella Cif.
 Granularia Sowerby
 Polycystis Lév.
